--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna4-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna4-Epha2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2970003333333334</v>
+        <v>0.3747116666666667</v>
       </c>
       <c r="H2">
-        <v>0.891001</v>
+        <v>1.124135</v>
       </c>
       <c r="I2">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="J2">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.08503166666667</v>
+        <v>7.757543333333333</v>
       </c>
       <c r="N2">
-        <v>33.255095</v>
+        <v>23.27263</v>
       </c>
       <c r="O2">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="P2">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="Q2">
-        <v>3.292258100010556</v>
+        <v>2.906841991672223</v>
       </c>
       <c r="R2">
-        <v>29.630322900095</v>
+        <v>26.16157792505</v>
       </c>
       <c r="S2">
-        <v>0.1324872381137528</v>
+        <v>0.1581827916501897</v>
       </c>
       <c r="T2">
-        <v>0.1324872381137528</v>
+        <v>0.1581827916501897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2970003333333334</v>
+        <v>0.3747116666666667</v>
       </c>
       <c r="H3">
-        <v>0.891001</v>
+        <v>1.124135</v>
       </c>
       <c r="I3">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="J3">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.937095</v>
       </c>
       <c r="O3">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="P3">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="Q3">
-        <v>0.09277250912166668</v>
+        <v>0.1170468097583334</v>
       </c>
       <c r="R3">
-        <v>0.834952582095</v>
+        <v>1.053421287825</v>
       </c>
       <c r="S3">
-        <v>0.003733356599949787</v>
+        <v>0.006369383397640684</v>
       </c>
       <c r="T3">
-        <v>0.003733356599949787</v>
+        <v>0.006369383397640684</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2970003333333334</v>
+        <v>0.3747116666666667</v>
       </c>
       <c r="H4">
-        <v>0.891001</v>
+        <v>1.124135</v>
       </c>
       <c r="I4">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="J4">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.62900266666666</v>
+        <v>11.12827366666667</v>
       </c>
       <c r="N4">
-        <v>43.88700799999999</v>
+        <v>33.384821</v>
       </c>
       <c r="O4">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490594</v>
       </c>
       <c r="P4">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490595</v>
       </c>
       <c r="Q4">
-        <v>4.344818668334222</v>
+        <v>4.169893972759446</v>
       </c>
       <c r="R4">
-        <v>39.10336801500799</v>
+        <v>37.529045754835</v>
       </c>
       <c r="S4">
-        <v>0.174844440498401</v>
+        <v>0.226914800111628</v>
       </c>
       <c r="T4">
-        <v>0.174844440498401</v>
+        <v>0.226914800111628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.204641</v>
       </c>
       <c r="I5">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883632</v>
       </c>
       <c r="J5">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883631</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.08503166666667</v>
+        <v>7.757543333333333</v>
       </c>
       <c r="N5">
-        <v>33.255095</v>
+        <v>23.27263</v>
       </c>
       <c r="O5">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="P5">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="Q5">
-        <v>4.451161210655</v>
+        <v>3.115018252870001</v>
       </c>
       <c r="R5">
-        <v>40.060450895895</v>
+        <v>28.03516427583</v>
       </c>
       <c r="S5">
-        <v>0.1791238831478183</v>
+        <v>0.169511203117309</v>
       </c>
       <c r="T5">
-        <v>0.1791238831478183</v>
+        <v>0.169511203117309</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.204641</v>
       </c>
       <c r="I6">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883632</v>
       </c>
       <c r="J6">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883631</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.937095</v>
       </c>
       <c r="O6">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="P6">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="Q6">
         <v>0.125429228655</v>
@@ -818,10 +818,10 @@
         <v>1.128863057895</v>
       </c>
       <c r="S6">
-        <v>0.005047530168787814</v>
+        <v>0.006825532863505958</v>
       </c>
       <c r="T6">
-        <v>0.005047530168787814</v>
+        <v>0.006825532863505957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.204641</v>
       </c>
       <c r="I7">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883632</v>
       </c>
       <c r="J7">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.62900266666666</v>
+        <v>11.12827366666667</v>
       </c>
       <c r="N7">
-        <v>43.88700799999999</v>
+        <v>33.384821</v>
       </c>
       <c r="O7">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490594</v>
       </c>
       <c r="P7">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490595</v>
       </c>
       <c r="Q7">
-        <v>5.874232133792</v>
+        <v>4.468524906029001</v>
       </c>
       <c r="R7">
-        <v>52.868089204128</v>
+        <v>40.21672415426101</v>
       </c>
       <c r="S7">
-        <v>0.2363911843493265</v>
+        <v>0.2431655199075481</v>
       </c>
       <c r="T7">
-        <v>0.2363911843493265</v>
+        <v>0.2431655199075481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.256238</v>
+        <v>0.18094</v>
       </c>
       <c r="H8">
-        <v>0.7687139999999999</v>
+        <v>0.54282</v>
       </c>
       <c r="I8">
-        <v>0.2683723671219638</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="J8">
-        <v>0.2683723671219639</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.08503166666667</v>
+        <v>7.757543333333333</v>
       </c>
       <c r="N8">
-        <v>33.255095</v>
+        <v>23.27263</v>
       </c>
       <c r="O8">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="P8">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="Q8">
-        <v>2.840406344203333</v>
+        <v>1.403649890733333</v>
       </c>
       <c r="R8">
-        <v>25.56365709783</v>
+        <v>12.6328490166</v>
       </c>
       <c r="S8">
-        <v>0.1143037940017748</v>
+        <v>0.07638298154897405</v>
       </c>
       <c r="T8">
-        <v>0.1143037940017748</v>
+        <v>0.07638298154897405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.256238</v>
+        <v>0.18094</v>
       </c>
       <c r="H9">
-        <v>0.7687139999999999</v>
+        <v>0.54282</v>
       </c>
       <c r="I9">
-        <v>0.2683723671219638</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="J9">
-        <v>0.2683723671219639</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.937095</v>
       </c>
       <c r="O9">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="P9">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="Q9">
-        <v>0.08003978286999999</v>
+        <v>0.0565193231</v>
       </c>
       <c r="R9">
-        <v>0.72035804583</v>
+        <v>0.5086739079</v>
       </c>
       <c r="S9">
-        <v>0.003220965504386414</v>
+        <v>0.003075634773321101</v>
       </c>
       <c r="T9">
-        <v>0.003220965504386415</v>
+        <v>0.003075634773321101</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.256238</v>
+        <v>0.18094</v>
       </c>
       <c r="H10">
-        <v>0.7687139999999999</v>
+        <v>0.54282</v>
       </c>
       <c r="I10">
-        <v>0.2683723671219638</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="J10">
-        <v>0.2683723671219639</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.62900266666666</v>
+        <v>11.12827366666667</v>
       </c>
       <c r="N10">
-        <v>43.88700799999999</v>
+        <v>33.384821</v>
       </c>
       <c r="O10">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490594</v>
       </c>
       <c r="P10">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490595</v>
       </c>
       <c r="Q10">
-        <v>3.748506385301333</v>
+        <v>2.013549837246666</v>
       </c>
       <c r="R10">
-        <v>33.73655746771199</v>
+        <v>18.12194853522</v>
       </c>
       <c r="S10">
-        <v>0.1508476076158027</v>
+        <v>0.1095721526298833</v>
       </c>
       <c r="T10">
-        <v>0.1508476076158027</v>
+        <v>0.1095721526298833</v>
       </c>
     </row>
   </sheetData>
